--- a/Carbon_Savings.xlsx
+++ b/Carbon_Savings.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.4261256</v>
+        <v>1.5838128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.2724824</v>
+        <v>1.3159968</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5610624</v>
+        <v>1.4721144</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Carbon_Savings.xlsx
+++ b/Carbon_Savings.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.5838128</v>
+        <v>1.4261256</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.3159968</v>
+        <v>1.2724824</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.4721144</v>
+        <v>1.4032656</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5665055999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
